--- a/datamining/final_data/sorted2012_nltk.xlsx
+++ b/datamining/final_data/sorted2012_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJO2"/>
+  <dimension ref="A1:AIJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,29 +452,29 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>psychosocial</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>introduction</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>policy</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>psychosocial</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
@@ -497,19 +497,19 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>handbook</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>cambridge</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>handbook</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>academic</t>
@@ -522,14 +522,14 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>relationships</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>worrell</t>
@@ -537,74 +537,74 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>olszewski-kubilius</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rethinking</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>programming</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>olszewski-kubilius</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>rethinking</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>implications</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>perspective</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>advocacy</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>proposed</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>research</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>perspective</t>
-        </is>
-      </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>program</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>approach</t>
@@ -612,14 +612,14 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>individuals</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>schools</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>evaluation</t>
@@ -627,327 +627,327 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>commentary</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>autism</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>sem</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>children</t>
-        </is>
-      </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>commentary</t>
+          <t>model</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>needs</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>statistical</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>dilemma</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>eminence</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>girls</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>statistical</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>eminence</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>conception</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>conception</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>presidential</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
+          <t>save</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>innovation</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
           <t>and/or</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>methods</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>giftedness/talent</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>definition</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>occupational/career</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>advanced</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>occupational/career</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>save</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>presidential</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>innovation</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>brief</t>
+          <t>twice-exceptional</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>used</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>twice-exceptional</t>
+          <t>delivery</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>social</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>delivery</t>
+          <t>article</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>administrators</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>coaching</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>society</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>coaching</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>based</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>administrators</t>
+          <t>two</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>provision</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>philosophical/theoretical</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
           <t>career</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>philosophical/theoretical</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>psychological</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>theoretical</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>regression</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>provision</t>
-        </is>
-      </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>academics</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
+          <t>discontinuity</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
           <t>treatment</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>increase</t>
-        </is>
-      </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>discontinuity</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>academics</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>syndrome</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
@@ -957,402 +957,402 @@
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>syndrome</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>direction</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>high</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>nonmathematical</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>psychology</t>
+          <t>for-college-credit</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
           <t>ap</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>placement</t>
-        </is>
-      </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>nonmathematical</t>
+          <t>within</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>people</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>for-college-credit</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>vocational</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>grantham</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>articles</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
           <t>abilities</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>modeling</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>reliability</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>articles</t>
-        </is>
-      </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>grantham</t>
+          <t>also</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>programming/service</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>structural</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>vocational</t>
+          <t>addressing</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
           <t>equation</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>high-ability</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>structural</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>many</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>programming/service</t>
-        </is>
-      </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>services</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>domains</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>addressing</t>
+          <t>results</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>several</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>forced</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>questions</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
           <t>young</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>several</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>domains</t>
-        </is>
-      </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>interpersonal</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>using</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>forced</t>
+          <t>need</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>interpersonal</t>
+          <t>new</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>introduces</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>al</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>four</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
+          <t>focusing</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
           <t>et</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>al</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>introduces</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>four</t>
-        </is>
-      </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>method</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>could</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>given</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>three</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>focusing</t>
+          <t>well</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>use</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>disabilities</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>age/developmental</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>disabilities</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
+          <t>aspirations</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>chief</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
           <t>findings</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>experiences</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>aspirations</t>
+          <t>trajectories</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>trajectories</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
@@ -1362,257 +1362,257 @@
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>review</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>included</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>age/developmental</t>
+          <t>positively</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>success</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>would</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>current</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>positively</t>
+          <t>peer-coaching</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>assignment</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>control</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>implementing</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>standard</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
+          <t>gifted</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
           <t>educators</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>implementing</t>
-        </is>
-      </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>account</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>rdd</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>assignment</t>
+          <t>design</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>however</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>rdd</t>
+          <t>makers</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>makers</t>
+          <t>related</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>psychologists</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>peer-coaching</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>chief</t>
+          <t>argue</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>furthermore</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>nongifted</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>populations/underserved</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>nongifted</t>
+          <t>houndstooth</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>populations/underserved</t>
+          <t>century</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>furthermore</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>argue</t>
+          <t>eminence-focused</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>psychologists</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>leaders</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
+          <t>advocates</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>creative</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>triad</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>including</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>explores</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
           <t>vertical</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>significant</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>including</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>eminence-focused</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>explores</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>cultural</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>theory</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>triad</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>case</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>century</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>leaders</t>
+          <t>mathematically</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>houndstooth</t>
+          <t>measure</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>enrichment</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>paradigm</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
@@ -1622,27 +1622,27 @@
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>integrated</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>advocates</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>measure</t>
+          <t>focused</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
@@ -1652,3537 +1652,3382 @@
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
+          <t>influencing</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>policies</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>examined</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>examines</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>written</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>latent</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>diagrams</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>specifically</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
           <t>constructs</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>paradigm</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>latent</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
-        <is>
-          <t>influencing</t>
-        </is>
-      </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>examines</t>
-        </is>
-      </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>provides</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>quantitative</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>journals</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>achieve</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>policies</t>
-        </is>
-      </c>
-      <c r="IS1" s="1" t="inlineStr">
-        <is>
-          <t>diagrams</t>
-        </is>
-      </c>
-      <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>integrated</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>provides</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>perceptions</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>mathematically</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>teachers</t>
-        </is>
-      </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>commonly</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>focused</t>
+          <t>ecls-k</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>consideration</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>quantitative</t>
+          <t>found</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
+          <t>reading</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>sharpened</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>addresses</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
           <t>existing</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>critique</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>organizational</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>suggests</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>must</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>ecls-k</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>journals</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>consideration</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>credentials</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>specific</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>diverse</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>reading</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>suggests</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>commonly</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>lines</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>necessary</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>productive</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>self-critically</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>respects</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>scientific</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>productive</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>community</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>necessary</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>lines</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>critique</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>self-critically</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>credentials</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>change</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>average</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>sharpened</t>
-        </is>
-      </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>addresses</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>commentaries</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>written</t>
+          <t>favoring</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>assigning</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>respects</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>contention</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>organizational</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>data</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>label</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>men</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
+          <t>organize</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>reaffirm</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>respond</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>rhetoric</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>competence</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>straw</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>well-developed</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>regard</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>cultivating</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>arise</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
           <t>groups</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
-        <is>
-          <t>favoring</t>
-        </is>
-      </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="KZ1" s="1" t="inlineStr">
-        <is>
-          <t>competence</t>
-        </is>
-      </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>decisions</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>talented</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>methodological</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>estimates</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
-        <is>
-          <t>methodological</t>
-        </is>
-      </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>low-income</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>reported</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
-        <is>
-          <t>talented</t>
-        </is>
-      </c>
-      <c r="LE1" s="1" t="inlineStr">
-        <is>
-          <t>decisions</t>
-        </is>
-      </c>
-      <c r="LF1" s="1" t="inlineStr">
-        <is>
-          <t>leads</t>
-        </is>
-      </c>
-      <c r="LG1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="LH1" s="1" t="inlineStr">
-        <is>
-          <t>specifically</t>
-        </is>
-      </c>
-      <c r="LI1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>illustrations</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>guided</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>large-scale</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>linking</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>examples</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>spectrum</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>parents</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>indicated</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>identified</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>precedent</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>previous</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>expansive</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>realities</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>resource</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>translation</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="LL1" s="1" t="inlineStr">
-        <is>
-          <t>assigning</t>
-        </is>
-      </c>
-      <c r="LM1" s="1" t="inlineStr">
-        <is>
-          <t>reaffirm</t>
-        </is>
-      </c>
-      <c r="LN1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="LO1" s="1" t="inlineStr">
-        <is>
-          <t>organize</t>
-        </is>
-      </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>appropriate</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>contention</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>significantly</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>cultivating</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>crash</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>clarification</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>guiding</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>impressive</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>n't</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>option</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>principles</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>ready</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>scope</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>synthesis</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>teach</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>thoughtful</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>well-respected</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>allocation</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>spectrum</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>arts</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>conceptualization</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>precedent</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>debates</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>decades</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>domain-specific</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>few</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>effort</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>decades</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>debates</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>respond</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
-        <is>
-          <t>eight</t>
-        </is>
-      </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>arts</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>previous</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>emphasized</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>diagnosed</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>orientation</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>follow-up</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>acceptance</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>linking</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>well-developed</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>rhetoric</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>illustrations</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>regard</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>identified</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>guided</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>historical</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>equivalent</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>higher</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>large-scale</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>sport</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>lost</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>indicated</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>parents</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>arise</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>straw</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>emphasized</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>realities</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>commentaries</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>resource</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
-        <is>
-          <t>provide</t>
-        </is>
-      </c>
-      <c r="NQ1" s="1" t="inlineStr">
-        <is>
-          <t>diagnosed</t>
-        </is>
-      </c>
-      <c r="NR1" s="1" t="inlineStr">
-        <is>
-          <t>orientation</t>
-        </is>
-      </c>
-      <c r="NS1" s="1" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>low-income</t>
-        </is>
-      </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>benefits</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>research-based</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>analysis</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>examining</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>research-based</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>factor</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>clarification</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>crash</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>learn</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>enculturation</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>korean</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>korea</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>qualitative</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>see</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
-        <is>
-          <t>thrilled</t>
-        </is>
-      </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>thoughtful</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>they</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>impressive</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>korea</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>teach</t>
-        </is>
-      </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>synthesis</t>
+          <t>randomized</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>guiding</t>
+          <t>represents</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>randomized</t>
+          <t>timely</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>follow-up</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>support</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>serve</t>
+          <t>reviews</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>korean</t>
+          <t>prospective</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>principles</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>expansive</t>
+          <t>advancing</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>option</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>n't</t>
+          <t>construct</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>constructive</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>well-respected</t>
+          <t>debate</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>choices</t>
+          <t>emerging</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>enculturation</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
+          <t>examination</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>impetus</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>underlying</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>scholars</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>proposal</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>psychology/career</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>among</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>inevitable</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>counselors</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>features</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>principle</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>distinct</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>unification</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>fundamental</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>splitting</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>disciplines</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>incoherence</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>schism</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>rise</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>desired</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>adoption</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>attempts</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>coherence</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>consequence</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>grand</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>criticized</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>definitional</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
           <t>incompatibility</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>adoption</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>analyses</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>distinct</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>disciplines</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>goals</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>inevitable</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>learners</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>desired</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>represents</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>psychology/career</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>features</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>definitional</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>criticized</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>attempts</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>incoherence</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>culturally</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>consequence</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>that</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>grand</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>fundamental</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>framework</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>coherence</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>rise</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>progress</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>debate</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>concept</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>unification</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>advancing</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>splitting</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>construct</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>schism</t>
-        </is>
-      </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>every</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>constructive</t>
+          <t>end</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>timely</t>
+          <t>interrelated</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>prospective</t>
+          <t>outstanding</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>principle</t>
+          <t>form</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>peak</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>emerging</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>examination</t>
+          <t>area</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>impetus</t>
+          <t>indicates</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>move</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>counselors</t>
+          <t>influences</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>indicates</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>interrelated</t>
+          <t>vary</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>underlying</t>
+          <t>responsibility</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>responsibility</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>influences</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>vary</t>
+          <t>inconsistent</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
+          <t>arguments</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>monograph</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>crucial</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>ought</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>growth</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>promote</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>represent</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>strive</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>taken</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
           <t>determine</t>
         </is>
       </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>growth</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>scholars</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>reviews</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>every</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>matter</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
         <is>
           <t>determining</t>
         </is>
       </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>verbal</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>point</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>strive</t>
-        </is>
-      </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>less</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>outstanding</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>underrepresented</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>one</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>crucial</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>peak</t>
+          <t>arising</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>preparing</t>
+          <t>previously</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>ought</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>taken</t>
+          <t>major</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>inconsistent</t>
+          <t>australian</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>able</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>monograph</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>yield</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>promote</t>
+          <t>trials</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>example</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>idealized</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>represent</t>
+          <t>illustrates</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>interviews</t>
+          <t>infer</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>inference</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>limitations</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>discusses</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>arising</t>
+          <t>making</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>misallocation</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>obtained</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>permissive</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>previously</t>
+          <t>pitfalls</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
-          <t>limitations</t>
+          <t>random</t>
         </is>
       </c>
       <c r="TF1" s="1" t="inlineStr">
         <is>
-          <t>pitfalls</t>
+          <t>causal</t>
         </is>
       </c>
       <c r="TG1" s="1" t="inlineStr">
         <is>
+          <t>i.e.</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>idiocentrism</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>insights</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>reader</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>relevance</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>causality</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>orientations</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>predict</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>require</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>therefore</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>applications</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
           <t>correctly</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>discusses</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>applications</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>require</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>relevance</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>reader</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>context</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>idealized</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>therefore</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>permissive</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>causality</t>
+          <t>attractive</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>illustrates</t>
+          <t>administered</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>infer</t>
+          <t>allocentrism</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>trials</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>inference</t>
+          <t>continued</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>misallocation</t>
+          <t>self-fulfillment</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>yield</t>
+          <t>subtheories</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>causal</t>
+          <t>three-ring</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>settings</t>
+          <t>twenty-first</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>attractive</t>
+          <t>wise</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>underrepresented</t>
+          <t>affected</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>family</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>content</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
+          <t>enrolled</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>greater</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>adequacy</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>aim</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>aware</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>confirmatory</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>uses</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>standardized</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>estimate</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>illustration</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>simultaneously</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>readers</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>purposes</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>outcomes</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
           <t>solvers</t>
         </is>
       </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>assessed</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>three-ring</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>aware</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>confirmatory</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>subtheories</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>seem</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>four-part</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>reexamination</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>reexamining</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>self-fulfillment</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>why</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>productivity</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>producers</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>maximize</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>intended</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>21st</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>generate</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>agree</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>functions</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>inspire</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>dialogue</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>enhance</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>exploration</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>executive</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>reservoir</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
         <is>
           <t>ring</t>
         </is>
       </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>reservoir</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>reexamining</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>reexamination</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>twenty-first</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>wise</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>productivity</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>idiocentrism</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>enrolled</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>predict</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>orientations</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>insights</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>i.e.</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>australian</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>allocentrism</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>administered</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>adequacy</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>aim</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>producers</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>agree</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
         <is>
           <t>devote</t>
         </is>
       </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>purposes</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>continued</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>readers</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>capacity</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>enhance</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>21st</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>simultaneously</t>
-        </is>
-      </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>affected</t>
+          <t>extend</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
-          <t>standardized</t>
+          <t>1,526</t>
         </is>
       </c>
       <c r="WG1" s="1" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="WH1" s="1" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>without</t>
         </is>
       </c>
       <c r="WI1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>type</t>
         </is>
       </c>
       <c r="WJ1" s="1" t="inlineStr">
         <is>
-          <t>dialogue</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="WK1" s="1" t="inlineStr">
         <is>
-          <t>seem</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="WL1" s="1" t="inlineStr">
         <is>
-          <t>path</t>
+          <t>third</t>
         </is>
       </c>
       <c r="WM1" s="1" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>same-age</t>
         </is>
       </c>
       <c r="WN1" s="1" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>prior</t>
         </is>
       </c>
       <c r="WO1" s="1" t="inlineStr">
         <is>
-          <t>maximize</t>
+          <t>seek</t>
         </is>
       </c>
       <c r="WP1" s="1" t="inlineStr">
         <is>
-          <t>extend</t>
+          <t>propensity</t>
         </is>
       </c>
       <c r="WQ1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>center</t>
         </is>
       </c>
       <c r="WR1" s="1" t="inlineStr">
         <is>
-          <t>four-part</t>
+          <t>personnel-reported</t>
         </is>
       </c>
       <c r="WS1" s="1" t="inlineStr">
         <is>
-          <t>functions</t>
+          <t>1988-1989</t>
         </is>
       </c>
       <c r="WT1" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>national</t>
         </is>
       </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
-          <t>generate</t>
+          <t>look</t>
         </is>
       </c>
       <c r="WV1" s="1" t="inlineStr">
         <is>
-          <t>intended</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>light</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
-          <t>inspire</t>
+          <t>length</t>
         </is>
       </c>
       <c r="WY1" s="1" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>kindergarten</t>
         </is>
       </c>
       <c r="WZ1" s="1" t="inlineStr">
         <is>
-          <t>observed</t>
+          <t>indicating</t>
         </is>
       </c>
       <c r="XA1" s="1" t="inlineStr">
         <is>
-          <t>illustration</t>
+          <t>affecting</t>
         </is>
       </c>
       <c r="XB1" s="1" t="inlineStr">
         <is>
+          <t>differences</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>comparable</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrated</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>secondary</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>perceive</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>peers</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>participated</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>norming</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>strength</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>maintain</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>initiate</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>suggested</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>fifth</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>difficulties</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>rated</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
           <t>hierarchical</t>
         </is>
       </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarten</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>indicating</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>fifth</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
         <is>
           <t>elementary</t>
         </is>
       </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>personnel-reported</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>in-depth</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>investigating</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>means</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>manova</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>measures</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>pragmatic</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>illuminating</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>half</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>five</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>relating</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>self-confidence</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>strategies</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>teaching</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>grouping</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>effective</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>aspects</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>attitude</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>broad</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>childhood</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>addressed</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>aimed</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>always</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>actively</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>methodology</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>cater</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>database</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>pearson</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>depends</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>expertise</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>topic</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>discussions</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>deviations</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>85.9</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>41.5</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>32.2</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>30.7</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-2010</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>anova</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>chi</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>approximately</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>cronbach</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
         <is>
           <t>effect</t>
         </is>
       </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>practices</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>prior</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>propensity</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>seek</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>without</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
+      <c r="AAR1" s="1" t="inlineStr">
         <is>
           <t>distinction</t>
         </is>
       </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>strength</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>same-age</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>rated</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>perceive</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>peers</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>participated</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>norming</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>difficulties</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>multivariate</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>maintain</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>levels</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>differences</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
+      <c r="AAS1" s="1" t="inlineStr">
         <is>
           <t>detrimental</t>
         </is>
       </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>1988-1989</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>degree</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>database</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>childhood</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>characteristics</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>broad</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>attitude</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>actively</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>1,526</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>accelerated</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>acceleration</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>affecting</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>initiate</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>comparable</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>whose</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>effective</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>30.7</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>cater</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>expertise</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
         <is>
           <t>77.8</t>
         </is>
       </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>greater</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>41.5</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>32.2</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>addressed</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>aimed</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>always</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>aspects</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>85.9</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>depends</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>england</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>pearson</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>discussions</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>anova</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>approximately</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>chi</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>cronbach</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>deviations</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>five</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>half</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>hand</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>manova</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>means</t>
-        </is>
-      </c>
       <c r="AAV1" s="1" t="inlineStr">
         <is>
-          <t>methodology</t>
+          <t>tenets</t>
         </is>
       </c>
       <c r="AAW1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>startling</t>
         </is>
       </c>
       <c r="AAX1" s="1" t="inlineStr">
         <is>
-          <t>alpha</t>
+          <t>spite</t>
         </is>
       </c>
       <c r="AAY1" s="1" t="inlineStr">
         <is>
-          <t>grouping</t>
+          <t>narratives</t>
         </is>
       </c>
       <c r="AAZ1" s="1" t="inlineStr">
         <is>
-          <t>2006-2010</t>
+          <t>specialization</t>
         </is>
       </c>
       <c r="ABA1" s="1" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>societal</t>
         </is>
       </c>
       <c r="ABB1" s="1" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="ABC1" s="1" t="inlineStr">
         <is>
-          <t>topic</t>
+          <t>led</t>
         </is>
       </c>
       <c r="ABD1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>narrates</t>
         </is>
       </c>
       <c r="ABE1" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="ABF1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>admittance</t>
         </is>
       </c>
       <c r="ABG1" s="1" t="inlineStr">
         <is>
-          <t>illuminating</t>
+          <t>careers</t>
         </is>
       </c>
       <c r="ABH1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>charted</t>
         </is>
       </c>
       <c r="ABI1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>choosing</t>
         </is>
       </c>
       <c r="ABJ1" s="1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>code</t>
         </is>
       </c>
       <c r="ABK1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>contrary</t>
         </is>
       </c>
       <c r="ABL1" s="1" t="inlineStr">
         <is>
-          <t>self-confidence</t>
+          <t>contributed</t>
         </is>
       </c>
       <c r="ABM1" s="1" t="inlineStr">
         <is>
-          <t>relating</t>
+          <t>fields</t>
         </is>
       </c>
       <c r="ABN1" s="1" t="inlineStr">
         <is>
-          <t>pragmatic</t>
+          <t>mathematical</t>
         </is>
       </c>
       <c r="ABO1" s="1" t="inlineStr">
         <is>
-          <t>paucity</t>
+          <t>8-year-long</t>
         </is>
       </c>
       <c r="ABP1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>inequalities</t>
         </is>
       </c>
       <c r="ABQ1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>influenced</t>
         </is>
       </c>
       <c r="ABR1" s="1" t="inlineStr">
         <is>
-          <t>investigating</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="ABS1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>involved</t>
         </is>
       </c>
       <c r="ABT1" s="1" t="inlineStr">
         <is>
-          <t>in-depth</t>
+          <t>kept</t>
         </is>
       </c>
       <c r="ABU1" s="1" t="inlineStr">
         <is>
-          <t>implemented</t>
+          <t>main</t>
         </is>
       </c>
       <c r="ABV1" s="1" t="inlineStr">
         <is>
+          <t>alongside</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>guidance</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>disorder</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>despite</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>criteria</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>transition</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>supports</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>spend</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>semistructured</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>participation</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>distinctions</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>participating</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>inconsistencies</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>frequently</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>environmental</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>enrollment</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>documented</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>barriers</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>accommodations</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>disorders</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>expression</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>inclusion</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>fluency</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>six</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>spend</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>still</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>participating</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>inconsistencies</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>display</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>documented</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>enrollment</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>environmental</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>frequently</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>gifts</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>admittance</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>barriers</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>inquiry</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>tenets</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>startling</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>spite</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>specialization</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>societal</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>presented</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>narratives</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>narrates</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>mathematical</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>kept</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>influenced</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>inequalities</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>fields</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>contributed</t>
-        </is>
-      </c>
       <c r="ADM1" s="1" t="inlineStr">
         <is>
-          <t>contrary</t>
+          <t>functioning</t>
         </is>
       </c>
       <c r="ADN1" s="1" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>perpetuation</t>
         </is>
       </c>
       <c r="ADO1" s="1" t="inlineStr">
         <is>
-          <t>choosing</t>
+          <t>perhaps</t>
         </is>
       </c>
       <c r="ADP1" s="1" t="inlineStr">
         <is>
-          <t>charted</t>
+          <t>present</t>
         </is>
       </c>
       <c r="ADQ1" s="1" t="inlineStr">
         <is>
-          <t>careers</t>
+          <t>plagues</t>
         </is>
       </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>alongside</t>
+          <t>past</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>pluralistic</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>8-year-long</t>
+          <t>omission</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>accommodations</t>
+          <t>poorer</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>supports</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>semistructured</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>ultimately</t>
+          <t>primarily</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>distinctions</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>rethink</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>taking</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
-          <t>comprehension</t>
+          <t>sum</t>
         </is>
       </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>criteria</t>
+          <t>status</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>stand</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>squarely</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>disorder</t>
+          <t>shows</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>disorders</t>
+          <t>researched</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>despite</t>
+          <t>promise</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>expression</t>
+          <t>representing</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>functioning</t>
+          <t>rely</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>recognize</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>reality</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>inclusion</t>
+          <t>race</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>math</t>
+          <t>quo</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>fluency</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>traction</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>changing</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>enrollments</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>encourages</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>embrace</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>depart</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>demographics</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>circa</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>chance</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>movement</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>browner</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>blacks</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>backgrounds</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>asserts</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>excellence</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>excluded</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>forward-thinking</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>gaining</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
           <t>gift</t>
         </is>
       </c>
-      <c r="AEQ1" s="1" t="inlineStr">
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>hispanic</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>hispanics</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>increasingly</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>involving</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>legacy</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>majority-minority</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>middle-class</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>minorities</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>minority</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>tend</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>view</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>turns</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>peer-coached</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>underrepresentation</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
         <is>
           <t>decreased</t>
         </is>
       </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>majority-minority</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>forward-thinking</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>gaining</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>hispanic</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>hispanics</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>income</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>increasingly</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>involving</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>legacy</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>middle-class</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>minorities</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>minority</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>movement</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>nation</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>novel</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>numbers</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>omission</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>excellence</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>perhaps</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>perpetuation</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>perspectives</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>plagues</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>excluded</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>distracted</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>evaluations</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
         <is>
           <t>increased</t>
         </is>
       </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>enrollments</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>encourages</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>asserts</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>backgrounds</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>one-on-one</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>placements</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>referral</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>rigorous</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>statistically</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
         <is>
           <t>traditionally</t>
         </is>
       </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>rigorous</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>blacks</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>browner</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>revealed</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>referral</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>rate</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>placements</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>chance</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>peer-coached</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>one-on-one</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>changing</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>poorer</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>evaluations</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>distracted</t>
-        </is>
-      </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>circa</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>demographics</t>
+          <t>attributed</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>depart</t>
+          <t>want</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>embrace</t>
+          <t>unlike</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>pluralistic</t>
+          <t>vision</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>white</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
+          <t>works</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
           <t>void</t>
         </is>
       </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>independence</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>access</t>
+          <t>incorporating</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>members</t>
         </is>
       </c>
       <c r="AHA1" s="1" t="inlineStr">
         <is>
-          <t>attributed</t>
+          <t>inequality</t>
         </is>
       </c>
       <c r="AHB1" s="1" t="inlineStr">
         <is>
-          <t>works</t>
+          <t>modified</t>
         </is>
       </c>
       <c r="AHC1" s="1" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>tested</t>
         </is>
       </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>interdependence</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>vision</t>
+          <t>strongly</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>individual-level</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>unlike</t>
+          <t>resolve</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>underrepresentation</t>
+          <t>realm</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>traction</t>
+          <t>putting</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
-          <t>tend</t>
+          <t>value</t>
         </is>
       </c>
       <c r="AHK1" s="1" t="inlineStr">
         <is>
-          <t>taking</t>
+          <t>incorporates</t>
         </is>
       </c>
       <c r="AHL1" s="1" t="inlineStr">
         <is>
-          <t>turns</t>
+          <t>play</t>
         </is>
       </c>
       <c r="AHM1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>place</t>
         </is>
       </c>
       <c r="AHN1" s="1" t="inlineStr">
         <is>
-          <t>rely</t>
+          <t>part</t>
         </is>
       </c>
       <c r="AHO1" s="1" t="inlineStr">
         <is>
-          <t>primarily</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="AHP1" s="1" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>quo</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>appears</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>stand</t>
+          <t>equality</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>recognize</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>reality</t>
+          <t>families</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>representing</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>researched</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>rethink</t>
+          <t>held</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>shows</t>
+          <t>hence</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>squarely</t>
+          <t>idiocentric</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>idiocentric/allocentric</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>conflict</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>experienced</t>
+          <t>choose</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>families</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>modified</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>members</t>
+          <t>450</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>australia</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>interdependence</t>
+          <t>assist</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>idiocentric</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>inequality</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>individual-level</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>independence</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>incorporating</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>incorporates</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>held</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>idiocentric/allocentric</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>equality</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>play</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>procedures</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>difficult</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
           <t>allocentric</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>appears</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>assist</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>australia</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>choose</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>tested</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>strongly</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>conflict</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>resolve</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>realm</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>putting</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>hence</t>
         </is>
       </c>
     </row>
@@ -5194,28 +5039,28 @@
         <v>2012</v>
       </c>
       <c r="C2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="E2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.75</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.74</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.73</v>
       </c>
       <c r="I2" t="n">
         <v>0.73</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.6300000000000001</v>
@@ -5239,58 +5084,58 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="R2" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.55</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.5499999999999999</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.54</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.53</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Z2" t="n">
         <v>0.53</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AA2" t="n">
         <v>0.53</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
         <v>0.53</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.52</v>
       </c>
       <c r="AC2" t="n">
         <v>0.52</v>
       </c>
       <c r="AD2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AF2" t="n">
         <v>0.51</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.5</v>
       </c>
       <c r="AG2" t="n">
         <v>0.5</v>
       </c>
       <c r="AH2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AI2" t="n">
         <v>0.4999999999999999</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.49</v>
       </c>
       <c r="AJ2" t="n">
         <v>0.49</v>
@@ -5299,7 +5144,7 @@
         <v>0.49</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AM2" t="n">
         <v>0.48</v>
@@ -5314,7 +5159,7 @@
         <v>0.48</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AR2" t="n">
         <v>0.47</v>
@@ -5323,31 +5168,31 @@
         <v>0.47</v>
       </c>
       <c r="AT2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AW2" t="n">
         <v>0.4600000000000001</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AX2" t="n">
         <v>0.46</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AY2" t="n">
         <v>0.46</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AZ2" t="n">
         <v>0.4500000000000001</v>
       </c>
-      <c r="AX2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.45</v>
-      </c>
       <c r="BA2" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="BC2" t="n">
         <v>0.44</v>
@@ -5356,31 +5201,31 @@
         <v>0.44</v>
       </c>
       <c r="BE2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="BI2" t="n">
         <v>0.43</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BJ2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="BL2" t="n">
         <v>0.42</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BM2" t="n">
         <v>0.42</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.41</v>
       </c>
       <c r="BN2" t="n">
         <v>0.41</v>
@@ -5392,10 +5237,10 @@
         <v>0.4</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="BS2" t="n">
         <v>0.39</v>
@@ -5404,31 +5249,31 @@
         <v>0.39</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="BW2" t="n">
         <v>0.37</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CA2" t="n">
         <v>0.36</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CD2" t="n">
         <v>0.35</v>
@@ -5455,7 +5300,7 @@
         <v>0.35</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="CM2" t="n">
         <v>0.34</v>
@@ -5470,7 +5315,7 @@
         <v>0.34</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CR2" t="n">
         <v>0.33</v>
@@ -5491,7 +5336,7 @@
         <v>0.33</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CY2" t="n">
         <v>0.32</v>
@@ -5506,19 +5351,19 @@
         <v>0.32</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="DH2" t="n">
         <v>0.31</v>
@@ -5533,25 +5378,25 @@
         <v>0.31</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DS2" t="n">
         <v>0.29</v>
@@ -5563,13 +5408,13 @@
         <v>0.29</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DY2" t="n">
         <v>0.28</v>
@@ -5590,16 +5435,16 @@
         <v>0.28</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="EI2" t="n">
         <v>0.27</v>
@@ -5626,22 +5471,22 @@
         <v>0.27</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EW2" t="n">
         <v>0.26</v>
@@ -5662,16 +5507,16 @@
         <v>0.26</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="FG2" t="n">
         <v>0.25</v>
@@ -5692,16 +5537,16 @@
         <v>0.25</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FQ2" t="n">
         <v>0.24</v>
@@ -5713,16 +5558,16 @@
         <v>0.24</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FX2" t="n">
         <v>0.23</v>
@@ -5764,16 +5609,16 @@
         <v>0.23</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GO2" t="n">
         <v>0.22</v>
@@ -5806,22 +5651,22 @@
         <v>0.22</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="HE2" t="n">
         <v>0.21</v>
@@ -5875,22 +5720,22 @@
         <v>0.21</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="IB2" t="n">
         <v>0.2</v>
@@ -5902,16 +5747,16 @@
         <v>0.2</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="II2" t="n">
         <v>0.19</v>
@@ -5971,13 +5816,13 @@
         <v>0.19</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="JE2" t="n">
         <v>0.18</v>
@@ -6070,37 +5915,37 @@
         <v>0.18</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="KT2" t="n">
         <v>0.17</v>
@@ -6151,37 +5996,37 @@
         <v>0.17</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="LU2" t="n">
         <v>0.16</v>
@@ -6340,28 +6185,28 @@
         <v>0.16</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="OC2" t="n">
         <v>0.15</v>
@@ -6397,55 +6242,55 @@
         <v>0.15</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="PE2" t="n">
         <v>0.14</v>
@@ -6568,43 +6413,43 @@
         <v>0.14</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="RF2" t="n">
         <v>0.13</v>
@@ -6676,67 +6521,67 @@
         <v>0.13</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SX2" t="n">
         <v>0.11</v>
@@ -6823,31 +6668,31 @@
         <v>0.11</v>
       </c>
       <c r="TZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="UI2" t="n">
         <v>0.1</v>
@@ -6997,70 +6842,70 @@
         <v>0.1</v>
       </c>
       <c r="WF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XB2" t="n">
         <v>0.09</v>
@@ -7357,82 +7202,82 @@
         <v>0.09</v>
       </c>
       <c r="AAV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ABV2" t="n">
         <v>0.08</v>
@@ -7567,88 +7412,88 @@
         <v>0.08</v>
       </c>
       <c r="ADN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADR2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADS2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AED2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEP2" t="n">
         <v>0.07000000000000001</v>
@@ -7831,91 +7676,91 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AGX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AGY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AGZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AIA2" t="n">
         <v>0.05</v>
@@ -7945,99 +7790,6 @@
         <v>0.05</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIK2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIL2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIM2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIN2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIO2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIP2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIQ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIR2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIS2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIT2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIU2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIV2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIW2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIX2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIY2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AIZ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJA2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJB2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJC2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJD2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJE2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJF2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJG2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJH2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJI2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJJ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJK2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJL2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJM2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJN2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJO2" t="n">
         <v>0.05</v>
       </c>
     </row>
